--- a/get_id_positive.xlsx
+++ b/get_id_positive.xlsx
@@ -16,10 +16,10 @@
     <t>Response</t>
   </si>
   <si>
-    <t>Status</t>
+    <t>Status Code</t>
   </si>
   <si>
-    <t>inactive</t>
+    <t>{"id":6871203,"name":"thanos","email":"thanos@mail.com","gender":"male","status":"inactive"}</t>
   </si>
 </sst>
 </file>
@@ -407,9 +407,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>2</v>
+      </c>
+      <c r="B2">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
